--- a/data/trans_dic/P57B3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B3_R-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.02775251199413523</v>
+        <v>0.02775251199413522</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.07859747587662437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05168057603869147</v>
+        <v>0.05168057603869146</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01159085329014046</v>
+        <v>0.009255374743573875</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04697990689152488</v>
+        <v>0.04331577972699645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03259205134044027</v>
+        <v>0.0329578342498623</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06152019057531834</v>
+        <v>0.05755852890965549</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1288626869700001</v>
+        <v>0.1283080222805883</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08048435840921882</v>
+        <v>0.07864842070075405</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0509973899087897</v>
+        <v>0.05269817600772087</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06793054893864398</v>
+        <v>0.07040911656713818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06463020528048502</v>
+        <v>0.06748530230631011</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1100541709279207</v>
+        <v>0.1090576063724258</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1228334654487793</v>
+        <v>0.1235615213710516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1067928415206134</v>
+        <v>0.107965965084919</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.07686178403438899</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09834107785445907</v>
+        <v>0.09834107785445909</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09243420295306939</v>
+        <v>0.09516523754073006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05966643798331273</v>
+        <v>0.06062369429922396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08234278611509192</v>
+        <v>0.08195236678115449</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1493996955995232</v>
+        <v>0.1476343760407452</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09523506452706226</v>
+        <v>0.09795118825439204</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1163877001541549</v>
+        <v>0.1166898499599446</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1198616666878101</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09889887465740797</v>
+        <v>0.09889887465740796</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1091236132622911</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09888479252184371</v>
+        <v>0.09749832192577668</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08040852281943159</v>
+        <v>0.08325304186774141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09528488138777746</v>
+        <v>0.09432998048757685</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1487657310838833</v>
+        <v>0.1478383104516953</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1178901520082239</v>
+        <v>0.1184609361549015</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1254235234057896</v>
+        <v>0.1244752353459564</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1449517688043576</v>
+        <v>0.1425788719912935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1274145800443929</v>
+        <v>0.1287931993084439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1426948330337004</v>
+        <v>0.1429394767364882</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2010684077487837</v>
+        <v>0.2000488729866506</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1731527742373268</v>
+        <v>0.1725080311467168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1788905508429762</v>
+        <v>0.1793817965938963</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.199628176541306</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.1628212483401721</v>
+        <v>0.1628212483401722</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09739713534328984</v>
+        <v>0.09716677755484489</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1717214964987321</v>
+        <v>0.1711221508573398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1444667734883533</v>
+        <v>0.1436205459404627</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1507809333442407</v>
+        <v>0.1495424333092131</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2271532470497178</v>
+        <v>0.2266406696117945</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1848386055275389</v>
+        <v>0.1838260019892821</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1854753716287344</v>
+        <v>0.1854753716287345</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.2799581739005061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2421021216953728</v>
+        <v>0.2421021216953727</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1522503710857189</v>
+        <v>0.1511872837243619</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2517227475521134</v>
+        <v>0.2522485935823541</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2200838268795069</v>
+        <v>0.2199859004577389</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2243611008834482</v>
+        <v>0.2238399927450121</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3132246508842635</v>
+        <v>0.3131015714104173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.266228797066938</v>
+        <v>0.2663476660761673</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4727</v>
+        <v>3774</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17031</v>
+        <v>15702</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25106</v>
+        <v>25388</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25088</v>
+        <v>23472</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46714</v>
+        <v>46513</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61998</v>
+        <v>60583</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24320</v>
+        <v>25131</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34039</v>
+        <v>35281</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63207</v>
+        <v>65999</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>52484</v>
+        <v>52008</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>61550</v>
+        <v>61915</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>104441</v>
+        <v>105588</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57280</v>
+        <v>58972</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37016</v>
+        <v>37609</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>102110</v>
+        <v>101626</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92580</v>
+        <v>91486</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59081</v>
+        <v>60766</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>144327</v>
+        <v>144702</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>69280</v>
+        <v>68309</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>59164</v>
+        <v>61257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>136868</v>
+        <v>135496</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>104228</v>
+        <v>103578</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86743</v>
+        <v>87162</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>180159</v>
+        <v>178797</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>88326</v>
+        <v>86880</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77406</v>
+        <v>78244</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>173640</v>
+        <v>173937</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>122520</v>
+        <v>121899</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>105193</v>
+        <v>104801</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>217685</v>
+        <v>218283</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39648</v>
+        <v>39555</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75414</v>
+        <v>75151</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>122254</v>
+        <v>121538</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>61380</v>
+        <v>60876</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99758</v>
+        <v>99533</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>156419</v>
+        <v>155562</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>47087</v>
+        <v>46758</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>116452</v>
+        <v>116695</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>169881</v>
+        <v>169805</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>69388</v>
+        <v>69227</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>144904</v>
+        <v>144847</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>205500</v>
+        <v>205592</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
     </row>
     <row r="36">
